--- a/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
+++ b/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>10.12607725425915</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.09976713721595667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1226080174363657</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1223982275083728</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.086696089546653</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
+++ b/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
@@ -552,19 +552,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D3" t="n">
-        <v>112922.7816761344</v>
+        <v>112883.7391489402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006606915382642457</v>
+        <v>0.004763057682040931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1664384007477258</v>
+        <v>0.1722540257567458</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.070600891503675</v>
+        <v>-1.268319468313189</v>
       </c>
       <c r="H3" t="n">
-        <v>9.901797784389265</v>
+        <v>11.26768481216366</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,19 +586,19 @@
         <v>0.1780821917808219</v>
       </c>
       <c r="D4" t="n">
-        <v>113828.1899836367</v>
+        <v>113725.512408094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003605793770952722</v>
+        <v>-0.0005611441198597482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1760199323829811</v>
+        <v>0.1908204657038853</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.003770714227315</v>
+        <v>-1.509263841052931</v>
       </c>
       <c r="H4" t="n">
-        <v>8.575989125085236</v>
+        <v>12.59163667277719</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2547945205479452</v>
       </c>
       <c r="D5" t="n">
-        <v>114408.1070516641</v>
+        <v>114455.0058600235</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.006458231439976896</v>
+        <v>-0.003820815790867739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2084500318310774</v>
+        <v>0.1951824710473767</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.31914161467562</v>
+        <v>-0.8102660972289101</v>
       </c>
       <c r="H5" t="n">
-        <v>12.03921567859765</v>
+        <v>7.585638409631578</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3315068493150685</v>
       </c>
       <c r="D6" t="n">
-        <v>115059.8728769677</v>
+        <v>115060.2364792997</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01282133238933707</v>
+        <v>-0.01300777817242779</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2276088108546259</v>
+        <v>0.2293912338860257</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.302358058081148</v>
+        <v>-1.386852238559575</v>
       </c>
       <c r="H6" t="n">
-        <v>10.09397818392809</v>
+        <v>11.07136796359288</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7534246575342466</v>
       </c>
       <c r="D8" t="n">
-        <v>116911.8798750939</v>
+        <v>116907.7111220563</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03360305580084789</v>
+        <v>-0.03258664512340192</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2165894248504125</v>
+        <v>0.2086998108458011</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.502239160475151</v>
+        <v>-1.16086155669494</v>
       </c>
       <c r="H8" t="n">
-        <v>11.32703387916483</v>
+        <v>7.817787217133953</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.079452054794521</v>
       </c>
       <c r="D10" t="n">
-        <v>119969.5907372423</v>
+        <v>119967.0285379993</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.104386497714663</v>
+        <v>-0.1056033928387945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4316544714679293</v>
+        <v>0.4405374640767752</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.776634268662178</v>
+        <v>-1.88591738007301</v>
       </c>
       <c r="H10" t="n">
-        <v>8.612391630615278</v>
+        <v>9.525320965214744</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.326027397260274</v>
       </c>
       <c r="D11" t="n">
-        <v>121666.8198876244</v>
+        <v>121648.2729414744</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1746040079869821</v>
+        <v>-0.1824791195662304</v>
       </c>
       <c r="F11" t="n">
-        <v>0.693095135589343</v>
+        <v>0.7530824280261705</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.227453283410747</v>
+        <v>-2.50555008259193</v>
       </c>
       <c r="H11" t="n">
-        <v>9.570999282311039</v>
+        <v>11.87187476787148</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>112879.4334756409</v>
+        <v>112872.0668740137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05427649411861859</v>
+        <v>0.05367345592475129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1342096403694262</v>
+        <v>0.1358023128035912</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7604282867820995</v>
+        <v>-0.8293083886466766</v>
       </c>
       <c r="H13" t="n">
-        <v>6.297035634606442</v>
+        <v>6.780960180530164</v>
       </c>
       <c r="I13" t="n">
         <v>-0.369504445206596</v>
@@ -942,19 +942,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>112902.659064183</v>
+        <v>112889.342296171</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05030264586384061</v>
+        <v>0.04929407705994201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1356377495223306</v>
+        <v>0.1380951289343995</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6858746833721515</v>
+        <v>-0.7812796165832036</v>
       </c>
       <c r="H14" t="n">
-        <v>6.250311476242626</v>
+        <v>6.837270817202463</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3199086843708128</v>
@@ -1020,19 +1020,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D16" t="n">
-        <v>112864.7050902046</v>
+        <v>112904.9703018227</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04237518725297609</v>
+        <v>0.04571232644541313</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1538322231873178</v>
+        <v>0.1387826665003753</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.634519616377639</v>
+        <v>-0.7267543967038677</v>
       </c>
       <c r="H16" t="n">
-        <v>16.57483485029492</v>
+        <v>7.492427315641736</v>
       </c>
       <c r="I16" t="n">
         <v>-0.321672285790476</v>
@@ -1062,19 +1062,19 @@
         <v>0.02465753424657534</v>
       </c>
       <c r="D17" t="n">
-        <v>112837.8732182029</v>
+        <v>112821.5129246753</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03729464076664775</v>
+        <v>0.03663106619014705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1461204903533462</v>
+        <v>0.1442794364729697</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9322963041670089</v>
+        <v>-1.041845963693458</v>
       </c>
       <c r="H17" t="n">
-        <v>6.685717697565914</v>
+        <v>6.132679052189135</v>
       </c>
       <c r="I17" t="n">
         <v>-0.2968289181115666</v>
@@ -1104,19 +1104,19 @@
         <v>0.04383561643835616</v>
       </c>
       <c r="D18" t="n">
-        <v>112919.6306772728</v>
+        <v>112958.9584880201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02338834100089797</v>
+        <v>0.02592122804018062</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1634828688678228</v>
+        <v>0.1532453225384673</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.125308743669577</v>
+        <v>-0.6947024462290753</v>
       </c>
       <c r="H18" t="n">
-        <v>10.12607725425915</v>
+        <v>7.118589828545098</v>
       </c>
       <c r="I18" t="n">
         <v>-0.09976713721595667</v>
@@ -1146,19 +1146,19 @@
         <v>0.06301369863013699</v>
       </c>
       <c r="D19" t="n">
-        <v>112928.1453893052</v>
+        <v>112969.7129666251</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01192998949169786</v>
+        <v>0.01429496541325808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1733306418206925</v>
+        <v>0.1642713640594899</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9828287828724189</v>
+        <v>-0.6561811003281649</v>
       </c>
       <c r="H19" t="n">
-        <v>8.800785722436487</v>
+        <v>6.689541172995616</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1180,19 +1180,19 @@
         <v>0.1013698630136986</v>
       </c>
       <c r="D20" t="n">
-        <v>113675.275568225</v>
+        <v>113780.3037758657</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004199709365535821</v>
+        <v>0.01636482599261388</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3945498591383086</v>
+        <v>0.2377040385869526</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.09460885685228</v>
+        <v>-4.041282978400303</v>
       </c>
       <c r="H20" t="n">
-        <v>189.3315329063933</v>
+        <v>42.48128837360665</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
+++ b/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.26768481216366</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.1443149811186594</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1950811787500297</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1529473919543284</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.95001704484697</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1160,10 +1168,18 @@
       <c r="H19" t="n">
         <v>6.689541172995616</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.1298812044034884</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2123087810980622</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0858994817784199</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.853749284865215</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
+++ b/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
@@ -1210,10 +1210,18 @@
       <c r="H20" t="n">
         <v>42.48128837360665</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.2049479017366116</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.263184587419064</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2449524956484287</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.431376744545068</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
+++ b/data_processed/20250827/BTCUSDQMOMENT_20250827.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>12.59163667277719</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.2422552835924969</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5268133146755812</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7235849514517669</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.022931541449702</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
